--- a/QALegend/src/test/resources/TestData.xlsx
+++ b/QALegend/src/test/resources/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanzh\eclipse-workspace\QALegend\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanzh\git\QALegendRepoName\QALegend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1070BD6E-4211-4FF9-8615-C79574997820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F6FFF8-B381-4DF3-A411-1E4EC3340EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="EventEdit" sheetId="18" r:id="rId15"/>
     <sheet name="ItemEdit" sheetId="19" r:id="rId16"/>
     <sheet name="Project" sheetId="20" r:id="rId17"/>
+    <sheet name="TeamEdit" sheetId="21" r:id="rId18"/>
+    <sheet name="TeamAnnouncement" sheetId="22" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="121">
   <si>
     <t>Title</t>
   </si>
@@ -398,6 +400,12 @@
   </si>
   <si>
     <t>aaali@gmail.com</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Hanz Haneefa</t>
   </si>
 </sst>
 </file>
@@ -1195,6 +1203,62 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E28CDCE-2BDE-42FC-9B86-A3EDD1975A0E}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1F8C9C-F988-4371-A48B-C0D994244CD1}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150BA6AB-8E3E-42B0-923C-F186EDE555D1}">
   <dimension ref="A1:B4"/>
@@ -1531,7 +1595,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1578,7 +1642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CFB91D-0E82-4F35-9501-67EB897B1473}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>

--- a/QALegend/src/test/resources/TestData.xlsx
+++ b/QALegend/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanzh\git\QALegendRepoName\QALegend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F6FFF8-B381-4DF3-A411-1E4EC3340EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EE4BE3-E42C-4C20-B605-797B24B73F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Project" sheetId="20" r:id="rId17"/>
     <sheet name="TeamEdit" sheetId="21" r:id="rId18"/>
     <sheet name="TeamAnnouncement" sheetId="22" r:id="rId19"/>
+    <sheet name="Sheet2" sheetId="23" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -393,12 +394,6 @@
     <t>Alright</t>
   </si>
   <si>
-    <t>Hanz Project</t>
-  </si>
-  <si>
-    <t>Everything is fine</t>
-  </si>
-  <si>
     <t>aaali@gmail.com</t>
   </si>
   <si>
@@ -406,6 +401,12 @@
   </si>
   <si>
     <t>Hanz Haneefa</t>
+  </si>
+  <si>
+    <t>Done with the new project</t>
+  </si>
+  <si>
+    <t>Everything is good here</t>
   </si>
 </sst>
 </file>
@@ -1218,12 +1219,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1235,7 +1236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1F8C9C-F988-4371-A48B-C0D994244CD1}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -1315,11 +1316,23 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209DA962-2CC7-4FCA-AB16-CB0C757B9114}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2400DE5-A1A0-4805-B3DC-3FED0E53D650}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1343,7 +1356,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>115</v>
@@ -1535,7 +1548,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
         <v>108</v>
@@ -1715,7 +1728,7 @@
         <v>45652</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>113</v>

--- a/QALegend/src/test/resources/TestData.xlsx
+++ b/QALegend/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanzh\git\QALegendRepoName\QALegend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EE4BE3-E42C-4C20-B605-797B24B73F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428434B8-A0C7-44A8-84B9-25BA2626CD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -370,9 +370,6 @@
     <t>Project For Hongkong</t>
   </si>
   <si>
-    <t>new project</t>
-  </si>
-  <si>
     <t>Hanz</t>
   </si>
   <si>
@@ -403,10 +400,13 @@
     <t>Hanz Haneefa</t>
   </si>
   <si>
-    <t>Done with the new project</t>
-  </si>
-  <si>
     <t>Everything is good here</t>
+  </si>
+  <si>
+    <t>newly project</t>
+  </si>
+  <si>
+    <t>Completed the item</t>
   </si>
 </sst>
 </file>
@@ -837,7 +837,7 @@
         <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
         <v>67</v>
@@ -1219,12 +1219,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2400DE5-A1A0-4805-B3DC-3FED0E53D650}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1356,10 +1356,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
         <v>89</v>
@@ -1524,7 +1524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017436FE-E47D-4E8C-9571-132666DD416D}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1548,10 +1548,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
         <v>119</v>
-      </c>
-      <c r="B2" t="s">
-        <v>108</v>
       </c>
       <c r="C2">
         <v>1000</v>
@@ -1704,10 +1704,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
         <v>109</v>
-      </c>
-      <c r="B2" t="s">
-        <v>110</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>90</v>
@@ -1716,10 +1716,10 @@
         <v>9400575861</v>
       </c>
       <c r="E2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" t="s">
         <v>111</v>
-      </c>
-      <c r="F2" t="s">
-        <v>112</v>
       </c>
       <c r="G2">
         <v>100000</v>
@@ -1728,10 +1728,10 @@
         <v>45652</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/QALegend/src/test/resources/TestData.xlsx
+++ b/QALegend/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanzh\git\QALegendRepoName\QALegend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428434B8-A0C7-44A8-84B9-25BA2626CD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050361C2-B8DC-47CD-9BED-88FA47658A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,20 +19,21 @@
     <sheet name="Messages" sheetId="4" r:id="rId4"/>
     <sheet name="Clients" sheetId="5" r:id="rId5"/>
     <sheet name="Items" sheetId="7" r:id="rId6"/>
-    <sheet name="Tickets" sheetId="8" r:id="rId7"/>
-    <sheet name="Announcements" sheetId="9" r:id="rId8"/>
-    <sheet name="Team Members" sheetId="10" r:id="rId9"/>
-    <sheet name="Leave" sheetId="11" r:id="rId10"/>
-    <sheet name="Time Cards" sheetId="12" r:id="rId11"/>
-    <sheet name="Invoices" sheetId="13" r:id="rId12"/>
-    <sheet name="NotesEdit" sheetId="14" r:id="rId13"/>
-    <sheet name="ClientsEdit" sheetId="16" r:id="rId14"/>
-    <sheet name="EventEdit" sheetId="18" r:id="rId15"/>
-    <sheet name="ItemEdit" sheetId="19" r:id="rId16"/>
-    <sheet name="Project" sheetId="20" r:id="rId17"/>
-    <sheet name="TeamEdit" sheetId="21" r:id="rId18"/>
-    <sheet name="TeamAnnouncement" sheetId="22" r:id="rId19"/>
-    <sheet name="Sheet2" sheetId="23" r:id="rId20"/>
+    <sheet name="Sheet3" sheetId="24" r:id="rId7"/>
+    <sheet name="Tickets" sheetId="8" r:id="rId8"/>
+    <sheet name="Announcements" sheetId="9" r:id="rId9"/>
+    <sheet name="Team Members" sheetId="10" r:id="rId10"/>
+    <sheet name="Leave" sheetId="11" r:id="rId11"/>
+    <sheet name="Time Cards" sheetId="12" r:id="rId12"/>
+    <sheet name="Invoices" sheetId="13" r:id="rId13"/>
+    <sheet name="NotesEdit" sheetId="14" r:id="rId14"/>
+    <sheet name="ClientsEdit" sheetId="16" r:id="rId15"/>
+    <sheet name="EventEdit" sheetId="18" r:id="rId16"/>
+    <sheet name="ItemEdit" sheetId="19" r:id="rId17"/>
+    <sheet name="Project" sheetId="20" r:id="rId18"/>
+    <sheet name="TeamEdit" sheetId="21" r:id="rId19"/>
+    <sheet name="TeamAnnouncement" sheetId="22" r:id="rId20"/>
+    <sheet name="Client" sheetId="23" r:id="rId21"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="126">
   <si>
     <t>Title</t>
   </si>
@@ -407,6 +408,21 @@
   </si>
   <si>
     <t>Completed the item</t>
+  </si>
+  <si>
+    <t>Company name</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>Addressnew</t>
   </si>
 </sst>
 </file>
@@ -817,6 +833,99 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CFB91D-0E82-4F35-9501-67EB897B1473}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" customWidth="1"/>
+    <col min="10" max="11" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2">
+        <v>9400575861</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2">
+        <v>100000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45652</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="riya@gmail.com" xr:uid="{AE5F0E10-2698-4EA0-8727-623C3EBE8705}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{B742BD36-1CA9-4946-875C-ABBC646FF399}"/>
+    <hyperlink ref="I2" r:id="rId3" xr:uid="{A7E50AE4-C314-4805-BAFE-ECDA3633985A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4617ABDA-FB20-444D-9BEE-6C9FFC8ED203}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -871,7 +980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFE9904-361F-43C0-BC1B-FD7CACE616E0}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -931,7 +1040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B59343C-187A-4ADC-8844-53CEE78F6A24}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -987,7 +1096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DEA5DBE-1BE5-4F7A-99DB-C57C16158090}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1029,7 +1138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5702BD85-6B6D-4B8C-96A2-8702C927C195}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1071,7 +1180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373EF23A-0D30-4CDC-B275-80D4F74CC802}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1127,7 +1236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2022F1B9-4644-4C62-BE14-591B7AD32E96}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1169,7 +1278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1614E6C-E5B1-475A-8BBF-C355C0729D1A}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1204,7 +1313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E28CDCE-2BDE-42FC-9B86-A3EDD1975A0E}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1225,34 +1334,6 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1F8C9C-F988-4371-A48B-C0D994244CD1}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1317,13 +1398,100 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1F8C9C-F988-4371-A48B-C0D994244CD1}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209DA962-2CC7-4FCA-AB16-CB0C757B9114}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2">
+        <v>8956551122</v>
+      </c>
+      <c r="G2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1524,7 +1692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017436FE-E47D-4E8C-9571-132666DD416D}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1563,6 +1731,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DF605F-8B0D-493E-9414-AB8844FFCC40}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E5900D-DE1B-4FD3-994E-40589A669CB4}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1603,7 +1783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036CF634-7713-41DE-A16E-6988FD5C14E8}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1649,97 +1829,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CFB91D-0E82-4F35-9501-67EB897B1473}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" customWidth="1"/>
-    <col min="10" max="11" width="12.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2">
-        <v>9400575861</v>
-      </c>
-      <c r="E2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2">
-        <v>100000</v>
-      </c>
-      <c r="H2" s="1">
-        <v>45652</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="riya@gmail.com" xr:uid="{AE5F0E10-2698-4EA0-8727-623C3EBE8705}"/>
-    <hyperlink ref="J2" r:id="rId2" xr:uid="{B742BD36-1CA9-4946-875C-ABBC646FF399}"/>
-    <hyperlink ref="I2" r:id="rId3" xr:uid="{A7E50AE4-C314-4805-BAFE-ECDA3633985A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/QALegend/src/test/resources/TestData.xlsx
+++ b/QALegend/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanzh\git\QALegendRepoName\QALegend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050361C2-B8DC-47CD-9BED-88FA47658A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F60D465-1DAE-44B2-9B70-D13C5FA634EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="125">
   <si>
     <t>Title</t>
   </si>
@@ -194,12 +194,6 @@
     <t>Pleasant Day</t>
   </si>
   <si>
-    <t>AA BB</t>
-  </si>
-  <si>
-    <t>Well done Team</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
@@ -423,6 +417,9 @@
   </si>
   <si>
     <t>Addressnew</t>
+  </si>
+  <si>
+    <t>To add ticket</t>
   </si>
 </sst>
 </file>
@@ -853,54 +850,54 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>56</v>
       </c>
       <c r="D1" t="s">
         <v>24</v>
       </c>
       <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>60</v>
-      </c>
-      <c r="I1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>9400575861</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G2">
         <v>100000</v>
@@ -909,10 +906,10 @@
         <v>45652</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -943,36 +940,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>67</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1">
         <v>45648</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -997,27 +994,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>75</v>
       </c>
-      <c r="D1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" t="s">
-        <v>77</v>
-      </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1">
         <v>45643</v>
@@ -1032,7 +1029,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1059,27 +1056,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
         <v>80</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" t="s">
-        <v>83</v>
-      </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1">
         <v>45645</v>
@@ -1088,7 +1085,7 @@
         <v>1000</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1113,24 +1110,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
         <v>91</v>
-      </c>
-      <c r="B1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1155,24 +1152,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
         <v>95</v>
-      </c>
-      <c r="B1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1199,13 +1196,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1216,13 +1213,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="1">
         <v>45646</v>
@@ -1253,13 +1250,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1267,7 +1264,7 @@
         <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C2">
         <v>1000</v>
@@ -1305,7 +1302,7 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1328,12 +1325,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +1414,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1429,7 +1426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209DA962-2CC7-4FCA-AB16-CB0C757B9114}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1441,7 +1438,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
         <v>19</v>
@@ -1462,7 +1459,7 @@
         <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1470,7 +1467,7 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1485,10 +1482,10 @@
         <v>8956551122</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1513,7 +1510,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1524,13 +1521,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1555,18 +1552,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -1603,7 +1600,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
         <v>19</v>
@@ -1716,10 +1713,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C2">
         <v>1000</v>
@@ -1746,13 +1743,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E5900D-DE1B-4FD3-994E-40589A669CB4}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="4" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1761,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1772,10 +1770,10 @@
         <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
+        <v>124</v>
+      </c>
+      <c r="C2">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1803,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -1814,10 +1812,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="5">
         <v>45652</v>
